--- a/protected/data/ods/person.xlsx
+++ b/protected/data/ods/person.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="228" yWindow="552" windowWidth="18876" windowHeight="8676"/>
   </bookViews>
@@ -23,98 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DRS</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>0=inactive</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1=active</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF333333"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>yii skeleton-app default user</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF333333"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yii skeleton-app default user</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Scott, Dale R</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"slappasswd -s password"</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="342">
   <si>
@@ -143,9 +51,6 @@
   </si>
   <si>
     <t>RESIDENCE</t>
-  </si>
-  <si>
-    <t>0=inactive</t>
   </si>
   <si>
     <t>First Name</t>
@@ -1121,9 +1026,6 @@
     <t>top</t>
   </si>
   <si>
-    <t>Sys-fbsd (system users - FreeBSD system):</t>
-  </si>
-  <si>
     <t>Extend rows as necessary to include all rows in master</t>
   </si>
   <si>
@@ -1133,18 +1035,9 @@
     <t>Copy column "setup_rmuser” to scc/bin/rmuser.sh  (do not copy column title, or delete after)</t>
   </si>
   <si>
-    <t>ldap</t>
-  </si>
-  <si>
     <t>Export ldap worksheet in CSV format to person-ldap.csv</t>
   </si>
   <si>
-    <t>Obtain password hash using slappasswd</t>
-  </si>
-  <si>
-    <t>Edit “master” worksheet as needed (“master” is relevant to all users)</t>
-  </si>
-  <si>
     <t>Data related to a specific component only is included in the relevant component's worksheet</t>
   </si>
   <si>
@@ -1152,6 +1045,21 @@
   </si>
   <si>
     <t>{SSHA}fPnzUPmJ8ju5UMwDrUz2tucxwIPttltZ</t>
+  </si>
+  <si>
+    <t>Obtain password hash using slappasswd ("slappasswd -s password")</t>
+  </si>
+  <si>
+    <t>person-system</t>
+  </si>
+  <si>
+    <t>person-ldap</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Edit “master” worksheet as needed (“master” data is relevant to all components)</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1071,7 @@
     <numFmt numFmtId="165" formatCode="[$$-1009]#,##0.00;[Red]&quot;-&quot;[$$-1009]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-1009]#,##0.00;&quot;-&quot;[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -1223,24 +1131,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1453,7 +1343,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1527,13 +1417,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,14 +1431,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1977,96 +1865,94 @@
       <c r="AA6" s="15"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="42"/>
+      <c r="AD6" s="40"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="K7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="V7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="W7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="X7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Z7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AA7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AB7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AC7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AD7" s="41" t="s">
         <v>36</v>
-      </c>
-      <c r="AD7" s="43" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2077,20 +1963,20 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16">
@@ -2098,12 +1984,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
       <c r="N8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
@@ -2120,7 +2006,7 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
-      <c r="AD8" s="42"/>
+      <c r="AD8" s="40"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
@@ -2130,20 +2016,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="25">
@@ -2151,12 +2037,12 @@
         <v>2</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -2173,7 +2059,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="44"/>
+      <c r="AD9" s="42"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -2183,90 +2069,90 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="26">
         <v>21551</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J10" s="25">
         <f>VLOOKUP(K10,person_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="N10" s="4" t="str">
         <f t="shared" ref="N10:N31" si="0">CONCATENATE(G10,"@",$B$2)</f>
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V10" s="5">
         <v>13054</v>
       </c>
       <c r="W10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Z10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Z10" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="AA10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC10" s="5">
         <v>13054</v>
       </c>
-      <c r="AD10" s="44" t="s">
-        <v>62</v>
+      <c r="AD10" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2277,87 +2163,87 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="26">
         <v>14277</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J11" s="25">
         <f>VLOOKUP(K11,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="S11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V11" s="5">
         <v>13054</v>
       </c>
       <c r="W11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC11" s="5">
         <v>13054</v>
       </c>
-      <c r="AD11" s="44" t="s">
-        <v>62</v>
+      <c r="AD11" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -2368,90 +2254,90 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F12" s="26">
         <v>21610</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J12" s="25">
         <f>VLOOKUP(K12,person_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="M12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="O12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="R12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V12" s="5">
         <v>13054</v>
       </c>
       <c r="W12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB12" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC12" s="5">
         <v>13054</v>
       </c>
-      <c r="AD12" s="44" t="s">
-        <v>62</v>
+      <c r="AD12" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -2462,90 +2348,90 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="F13" s="26">
         <v>21641</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J13" s="25">
         <f>VLOOKUP(K13,person_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V13" s="5">
         <v>13054</v>
       </c>
       <c r="W13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z13" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC13" s="5">
         <v>13054</v>
       </c>
-      <c r="AD13" s="44" t="s">
-        <v>62</v>
+      <c r="AD13" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2556,90 +2442,90 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F14" s="26">
         <v>21671</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J14" s="25">
         <f>VLOOKUP(K14,person_profile!$B$2:$D$10,3,)</f>
         <v>5</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="N14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="O14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="S14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="U14" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V14" s="5">
         <v>13054</v>
       </c>
       <c r="W14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z14" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB14" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC14" s="5">
         <v>13054</v>
       </c>
-      <c r="AD14" s="44" t="s">
-        <v>62</v>
+      <c r="AD14" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -2650,90 +2536,90 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F15" s="26">
         <v>21702</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J15" s="25">
         <f>VLOOKUP(K15,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="U15" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V15" s="5">
         <v>13054</v>
       </c>
       <c r="W15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z15" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC15" s="5">
         <v>13054</v>
       </c>
-      <c r="AD15" s="44" t="s">
-        <v>62</v>
+      <c r="AD15" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -2744,90 +2630,90 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="F16" s="26">
         <v>21732</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J16" s="25">
         <f>VLOOKUP(K16,person_profile!$B$2:$D$10,3,)</f>
         <v>4</v>
       </c>
       <c r="K16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="N16" s="4" t="str">
         <f>CONCATENATE(G16,"@",$B$2)</f>
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="S16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="U16" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V16" s="5">
         <v>13054</v>
       </c>
       <c r="W16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y16" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC16" s="5">
         <v>13054</v>
       </c>
-      <c r="AD16" s="44" t="s">
-        <v>62</v>
+      <c r="AD16" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2838,90 +2724,90 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="F17" s="26">
         <v>21763</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J17" s="25">
         <f>VLOOKUP(K17,person_profile!$B$2:$D$10,3,)</f>
         <v>8</v>
       </c>
       <c r="K17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="N17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="S17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="U17" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V17" s="5">
         <v>13054</v>
       </c>
       <c r="W17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z17" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC17" s="5">
         <v>13054</v>
       </c>
-      <c r="AD17" s="44" t="s">
-        <v>62</v>
+      <c r="AD17" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -2932,90 +2818,90 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F18" s="26">
         <v>21794</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J18" s="25">
         <f>VLOOKUP(K18,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="S18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="U18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V18" s="5">
         <v>13054</v>
       </c>
       <c r="W18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y18" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC18" s="5">
         <v>13054</v>
       </c>
-      <c r="AD18" s="44" t="s">
-        <v>62</v>
+      <c r="AD18" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3026,90 +2912,90 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="F19" s="26">
         <v>21824</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J19" s="25">
         <f>VLOOKUP(K19,person_profile!$B$2:$D$10,3,)</f>
         <v>6</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="N19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="R19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="U19" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V19" s="5">
         <v>13054</v>
       </c>
       <c r="W19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z19" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC19" s="5">
         <v>13054</v>
       </c>
-      <c r="AD19" s="44" t="s">
-        <v>62</v>
+      <c r="AD19" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3120,90 +3006,90 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="F20" s="26">
         <v>21855</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J20" s="25">
         <f>VLOOKUP(K20,person_profile!$B$2:$D$10,3,)</f>
         <v>4</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="R20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="U20" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V20" s="5">
         <v>13054</v>
       </c>
       <c r="W20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y20" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z20" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB20" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC20" s="5">
         <v>13054</v>
       </c>
-      <c r="AD20" s="44" t="s">
-        <v>62</v>
+      <c r="AD20" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3214,90 +3100,90 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="F21" s="26">
         <v>21885</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J21" s="25">
         <f>VLOOKUP(K21,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="S21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="U21" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V21" s="5">
         <v>13054</v>
       </c>
       <c r="W21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y21" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z21" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB21" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC21" s="5">
         <v>13054</v>
       </c>
-      <c r="AD21" s="44" t="s">
-        <v>62</v>
+      <c r="AD21" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3308,90 +3194,90 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F22" s="26">
         <v>12785</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J22" s="25">
         <f>VLOOKUP(K22,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="S22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="U22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V22" s="5">
         <v>13054</v>
       </c>
       <c r="W22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z22" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC22" s="5">
         <v>13054</v>
       </c>
-      <c r="AD22" s="44" t="s">
-        <v>62</v>
+      <c r="AD22" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3402,90 +3288,90 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="F23" s="26">
         <v>23815</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J23" s="25">
         <f>VLOOKUP(K23,person_profile!$B$2:$D$10,3,)</f>
         <v>1</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="O23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="S23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="U23" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V23" s="5">
         <v>13054</v>
       </c>
       <c r="W23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y23" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z23" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB23" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC23" s="5">
         <v>13054</v>
       </c>
-      <c r="AD23" s="44" t="s">
-        <v>62</v>
+      <c r="AD23" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -3496,90 +3382,90 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="26">
         <v>21976</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J24" s="25">
         <f>VLOOKUP(K24,person_profile!$B$2:$D$10,3,)</f>
         <v>3</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="U24" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V24" s="5">
         <v>13054</v>
       </c>
       <c r="W24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y24" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB24" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC24" s="5">
         <v>13054</v>
       </c>
-      <c r="AD24" s="44" t="s">
-        <v>62</v>
+      <c r="AD24" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -3590,90 +3476,90 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F25" s="26">
         <v>22007</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J25" s="25">
         <f>VLOOKUP(K25,person_profile!$B$2:$D$10,3,)</f>
         <v>7</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="N25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="R25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="U25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V25" s="5">
         <v>13054</v>
       </c>
       <c r="W25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y25" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z25" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC25" s="5">
         <v>13054</v>
       </c>
-      <c r="AD25" s="44" t="s">
-        <v>62</v>
+      <c r="AD25" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -3684,90 +3570,90 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F26" s="26">
         <v>22037</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J26" s="25">
         <f>VLOOKUP(K26,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="U26" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V26" s="5">
         <v>13054</v>
       </c>
       <c r="W26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y26" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z26" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB26" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC26" s="5">
         <v>13054</v>
       </c>
-      <c r="AD26" s="44" t="s">
-        <v>62</v>
+      <c r="AD26" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -3778,90 +3664,90 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="F27" s="26">
         <v>13667</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J27" s="25">
         <f>VLOOKUP(K27,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="O27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="S27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="U27" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V27" s="5">
         <v>13054</v>
       </c>
       <c r="W27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y27" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB27" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC27" s="5">
         <v>13054</v>
       </c>
-      <c r="AD27" s="44" t="s">
-        <v>62</v>
+      <c r="AD27" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -3872,90 +3758,90 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F28" s="26">
         <v>22098</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J28" s="25">
         <f>VLOOKUP(K28,person_profile!$B$2:$D$10,3,)</f>
         <v>6</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="O28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="R28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="U28" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V28" s="5">
         <v>13054</v>
       </c>
       <c r="W28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y28" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z28" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB28" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC28" s="5">
         <v>13054</v>
       </c>
-      <c r="AD28" s="44" t="s">
-        <v>62</v>
+      <c r="AD28" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -3966,90 +3852,90 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="F29" s="26">
         <v>21879</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J29" s="25">
         <f>VLOOKUP(K29,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="U29" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V29" s="5">
         <v>13054</v>
       </c>
       <c r="W29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y29" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z29" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB29" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC29" s="5">
         <v>13054</v>
       </c>
-      <c r="AD29" s="44" t="s">
-        <v>62</v>
+      <c r="AD29" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -4060,90 +3946,90 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="F30" s="26">
         <v>22160</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="J30" s="25">
         <f>VLOOKUP(K30,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="O30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="S30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="U30" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="V30" s="5">
         <v>13054</v>
       </c>
       <c r="W30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y30" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z30" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB30" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AC30" s="5">
         <v>13054</v>
       </c>
-      <c r="AD30" s="44" t="s">
-        <v>62</v>
+      <c r="AD30" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4154,90 +4040,90 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="F31" s="26">
         <v>22190</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="J31" s="25">
         <f>VLOOKUP(K31,person_profile!$B$2:$D$10,3,)</f>
         <v>9</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="U31" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U31" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V31" s="25">
         <v>13054</v>
       </c>
       <c r="W31" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="X31" s="9" t="s">
+      <c r="Y31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y31" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="Z31" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB31" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="AB31" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="AC31" s="25">
         <v>13054</v>
       </c>
-      <c r="AD31" s="44" t="s">
-        <v>62</v>
+      <c r="AD31" s="42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
@@ -4273,11 +4159,7 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0.5374000000000001" bottom="0.5374000000000001" header="0" footer="0"/>
   <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -4298,51 +4180,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="7" t="str">
         <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
@@ -4351,16 +4233,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="7" t="str">
         <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
@@ -4369,16 +4251,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4387,16 +4269,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4405,16 +4287,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4423,16 +4305,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4441,16 +4323,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4459,16 +4341,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4477,16 +4359,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4495,16 +4377,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4513,16 +4395,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4531,16 +4413,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4549,16 +4431,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4567,16 +4449,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4585,16 +4467,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4603,16 +4485,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4621,16 +4503,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4639,16 +4521,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4657,16 +4539,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4675,16 +4557,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4693,16 +4575,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4711,16 +4593,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4729,16 +4611,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4747,16 +4629,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4765,11 +4647,7 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4793,34 +4671,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4881,7 +4759,7 @@
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>master!D9</f>
@@ -4921,7 +4799,7 @@
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>master!D10</f>
@@ -4961,7 +4839,7 @@
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>master!D11</f>
@@ -5001,7 +4879,7 @@
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>master!D12</f>
@@ -5041,7 +4919,7 @@
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>master!D13</f>
@@ -5081,7 +4959,7 @@
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>master!D14</f>
@@ -5121,7 +4999,7 @@
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>master!D15</f>
@@ -5161,7 +5039,7 @@
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>master!D16</f>
@@ -5201,7 +5079,7 @@
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>master!D17</f>
@@ -5241,7 +5119,7 @@
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>master!D18</f>
@@ -5281,7 +5159,7 @@
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>master!D19</f>
@@ -5321,7 +5199,7 @@
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>master!D20</f>
@@ -5361,7 +5239,7 @@
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>master!D21</f>
@@ -5401,7 +5279,7 @@
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>master!D22</f>
@@ -5441,7 +5319,7 @@
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>master!D23</f>
@@ -5481,7 +5359,7 @@
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>master!D24</f>
@@ -5521,7 +5399,7 @@
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>master!D25</f>
@@ -5561,7 +5439,7 @@
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>master!D26</f>
@@ -5601,7 +5479,7 @@
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>master!D27</f>
@@ -5641,7 +5519,7 @@
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>master!D28</f>
@@ -5681,7 +5559,7 @@
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>master!D29</f>
@@ -5721,7 +5599,7 @@
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>master!D30</f>
@@ -5761,7 +5639,7 @@
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>master!D31</f>
@@ -5786,19 +5664,14 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.53660000000000008" bottom="0.31460000000000005" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;L&amp;9(C) 2010 by Dale R. Scott. This work is licensed under a
-Creative Commons Attribution 3.0 Unported License.
-http://creativecommons.org/licenses/by/3.0/&amp;C&amp;9Page &amp;P&amp;R&amp;9&amp;F, &amp;A</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ65536"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5809,7 +5682,6 @@
     <col min="3" max="3" width="41.796875" style="7" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" style="36" customWidth="1"/>
     <col min="5" max="24" width="6.69921875" style="7" customWidth="1"/>
-    <col min="25" max="1024" width="8.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="92.4" x14ac:dyDescent="0.25">
@@ -5817,73 +5689,73 @@
         <v>3</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="X1" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="X1" s="32" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -5891,73 +5763,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -5965,10 +5837,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="34">
         <v>2</v>
@@ -5981,7 +5853,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -5992,14 +5864,14 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -6007,10 +5879,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="34">
         <v>3</v>
@@ -6018,46 +5890,46 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -6065,10 +5937,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="34">
         <v>4</v>
@@ -6080,19 +5952,19 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -6100,14 +5972,14 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -6115,10 +5987,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" s="34">
         <v>5</v>
@@ -6131,30 +6003,30 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -6162,10 +6034,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7" s="34">
         <v>6</v>
@@ -6175,40 +6047,40 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -6216,17 +6088,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D8" s="34">
         <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6234,7 +6106,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6245,14 +6117,14 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -6260,10 +6132,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="34">
         <v>8</v>
@@ -6276,13 +6148,13 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -6291,14 +6163,14 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -6306,10 +6178,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D10" s="34">
         <v>9</v>
@@ -6322,7 +6194,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -6333,32 +6205,22 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65536" s="37"/>
-      <c r="B65536" s="38"/>
-      <c r="C65536" s="38"/>
-      <c r="D65536" s="39"/>
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:B10">
     <sortCondition ref="B2:B10"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6380,11 +6242,11 @@
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -6392,10 +6254,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>311</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6403,19 +6265,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>313</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6441,31 +6299,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6494,10 +6352,10 @@
         <v>Engineering</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6526,13 +6384,13 @@
         <v>Management</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6561,10 +6419,10 @@
         <v>Engineering</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6593,13 +6451,13 @@
         <v>Engineering</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6628,13 +6486,13 @@
         <v>Manufacturing</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6663,10 +6521,10 @@
         <v>Manufacturing</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6695,10 +6553,10 @@
         <v>Finance</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6727,10 +6585,10 @@
         <v>Sales &amp; Marketing</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6759,10 +6617,10 @@
         <v>Sales &amp; Marketing</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6791,10 +6649,10 @@
         <v>Manufacturing</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6823,10 +6681,10 @@
         <v>Finance</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6855,10 +6713,10 @@
         <v>Product Management</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6887,10 +6745,10 @@
         <v>Human Resources</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6919,13 +6777,13 @@
         <v>MIS/IT</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6954,13 +6812,13 @@
         <v>Engineering</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6989,13 +6847,13 @@
         <v>Manufacturing</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7024,10 +6882,10 @@
         <v>Finance</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -7056,13 +6914,13 @@
         <v>Quality</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -7091,13 +6949,13 @@
         <v>Manufacturing</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7126,13 +6984,13 @@
         <v>Engineering</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7161,13 +7019,13 @@
         <v>Product Management</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="I22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7196,24 +7054,20 @@
         <v>Legal</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7235,34 +7089,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>327</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7283,17 +7137,17 @@
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>master!G8</f>
         <v>admin</v>
       </c>
-      <c r="J2" s="48" t="s">
-        <v>340</v>
+      <c r="J2" s="46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7314,17 +7168,17 @@
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I3" s="7" t="str">
         <f>master!G9</f>
         <v>demo</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>341</v>
+      <c r="J3" s="43" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7353,17 +7207,17 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I4" s="7" t="str">
         <f>master!G10</f>
         <v>bjenks</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>51</v>
+      <c r="J4" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7392,17 +7246,17 @@
         <v>cn=,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I5" s="7" t="str">
         <f>master!G11</f>
         <v>bswift</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>51</v>
+      <c r="J5" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7431,17 +7285,17 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I6" s="7" t="str">
         <f>master!G12</f>
         <v>barmstrong</v>
       </c>
-      <c r="J6" s="46" t="s">
-        <v>51</v>
+      <c r="J6" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7470,17 +7324,17 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I7" s="7" t="str">
         <f>master!G13</f>
         <v>fmason</v>
       </c>
-      <c r="J7" s="46" t="s">
-        <v>51</v>
+      <c r="J7" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7509,17 +7363,17 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I8" s="7" t="str">
         <f>master!G14</f>
         <v>gjackson</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>51</v>
+      <c r="J8" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7548,17 +7402,17 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>master!G15</f>
         <v>hbaldwin</v>
       </c>
-      <c r="J9" s="46" t="s">
-        <v>51</v>
+      <c r="J9" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7587,17 +7441,17 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I10" s="7" t="str">
         <f>master!G16</f>
         <v>hrandall</v>
       </c>
-      <c r="J10" s="46" t="s">
-        <v>51</v>
+      <c r="J10" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7626,17 +7480,17 @@
         <v>cn=James Period,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I11" s="7" t="str">
         <f>master!G17</f>
         <v>jwood</v>
       </c>
-      <c r="J11" s="46" t="s">
-        <v>51</v>
+      <c r="J11" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7665,17 +7519,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I12" s="7" t="str">
         <f>master!G18</f>
         <v>jperiod</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>51</v>
+      <c r="J12" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7704,17 +7558,17 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I13" s="7" t="str">
         <f>master!G19</f>
         <v>jhaddon</v>
       </c>
-      <c r="J13" s="46" t="s">
-        <v>51</v>
+      <c r="J13" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7743,17 +7597,17 @@
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I14" s="7" t="str">
         <f>master!G20</f>
         <v>jmorse</v>
       </c>
-      <c r="J14" s="46" t="s">
-        <v>51</v>
+      <c r="J14" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7782,17 +7636,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I15" s="7" t="str">
         <f>master!G21</f>
         <v>jsharp</v>
       </c>
-      <c r="J15" s="46" t="s">
-        <v>51</v>
+      <c r="J15" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7821,17 +7675,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I16" s="7" t="str">
         <f>master!G22</f>
         <v>mbaggert</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>51</v>
+      <c r="J16" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7860,17 +7714,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I17" s="7" t="str">
         <f>master!G23</f>
         <v>mnestor</v>
       </c>
-      <c r="J17" s="46" t="s">
-        <v>51</v>
+      <c r="J17" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7899,17 +7753,17 @@
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I18" s="7" t="str">
         <f>master!G24</f>
         <v>mblair</v>
       </c>
-      <c r="J18" s="46" t="s">
-        <v>51</v>
+      <c r="J18" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7938,17 +7792,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I19" s="7" t="str">
         <f>master!G25</f>
         <v>mdelazes</v>
       </c>
-      <c r="J19" s="46" t="s">
-        <v>51</v>
+      <c r="J19" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7977,17 +7831,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I20" s="7" t="str">
         <f>master!G26</f>
         <v>nnewton</v>
       </c>
-      <c r="J20" s="46" t="s">
-        <v>51</v>
+      <c r="J20" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -8016,17 +7870,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I21" s="7" t="str">
         <f>master!G27</f>
         <v>rsampson</v>
       </c>
-      <c r="J21" s="46" t="s">
-        <v>51</v>
+      <c r="J21" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -8055,17 +7909,17 @@
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I22" s="7" t="str">
         <f>master!G28</f>
         <v>smalloy</v>
       </c>
-      <c r="J22" s="46" t="s">
-        <v>51</v>
+      <c r="J22" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -8094,17 +7948,17 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I23" s="7" t="str">
         <f>master!G29</f>
         <v>tswift</v>
       </c>
-      <c r="J23" s="46" t="s">
-        <v>51</v>
+      <c r="J23" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8133,17 +7987,17 @@
         <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I24" s="7" t="str">
         <f>master!G30</f>
         <v>wdamon</v>
       </c>
-      <c r="J24" s="46" t="s">
-        <v>51</v>
+      <c r="J24" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8172,33 +8026,28 @@
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="I25" s="7" t="str">
         <f>master!G31</f>
         <v>wcrawford</v>
       </c>
-      <c r="J25" s="45" t="s">
-        <v>51</v>
+      <c r="J25" s="43" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8208,79 +8057,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>338</v>
+      <c r="A1" s="39" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>331</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>332</v>
+      <c r="A5" s="39" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>335</v>
+      <c r="B8" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>332</v>
+      <c r="A10" s="39" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>